--- a/natmiOut/OldD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.76568852011817</v>
+        <v>0.7438956666666666</v>
       </c>
       <c r="H2">
-        <v>1.76568852011817</v>
+        <v>2.231687</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N2">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q2">
-        <v>133.178992662106</v>
+        <v>83.84309173679034</v>
       </c>
       <c r="R2">
-        <v>133.178992662106</v>
+        <v>754.5878256311131</v>
       </c>
       <c r="S2">
-        <v>0.1726084327585423</v>
+        <v>0.06252828322337277</v>
       </c>
       <c r="T2">
-        <v>0.1726084327585423</v>
+        <v>0.06252828322337277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.76568852011817</v>
+        <v>0.7438956666666666</v>
       </c>
       <c r="H3">
-        <v>1.76568852011817</v>
+        <v>2.231687</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N3">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q3">
-        <v>327.094818554231</v>
+        <v>141.0265651315133</v>
       </c>
       <c r="R3">
-        <v>327.094818554231</v>
+        <v>1269.23908618362</v>
       </c>
       <c r="S3">
-        <v>0.4239356588116781</v>
+        <v>0.1051744255119505</v>
       </c>
       <c r="T3">
-        <v>0.4239356588116781</v>
+        <v>0.1051744255119505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.76568852011817</v>
+        <v>0.7438956666666666</v>
       </c>
       <c r="H4">
-        <v>1.76568852011817</v>
+        <v>2.231687</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N4">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q4">
-        <v>164.8505932202813</v>
+        <v>82.31296579699745</v>
       </c>
       <c r="R4">
-        <v>164.8505932202813</v>
+        <v>740.816692172977</v>
       </c>
       <c r="S4">
-        <v>0.2136568385620852</v>
+        <v>0.06138714987357743</v>
       </c>
       <c r="T4">
-        <v>0.2136568385620852</v>
+        <v>0.06138714987357744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.76568852011817</v>
+        <v>0.7438956666666666</v>
       </c>
       <c r="H5">
-        <v>1.76568852011817</v>
+        <v>2.231687</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2947327619223709</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N5">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q5">
-        <v>146.4427231579349</v>
+        <v>88.01943185805044</v>
       </c>
       <c r="R5">
-        <v>146.4427231579349</v>
+        <v>792.1748867224539</v>
       </c>
       <c r="S5">
-        <v>0.1897990698676945</v>
+        <v>0.06564290331347016</v>
       </c>
       <c r="T5">
-        <v>0.1897990698676945</v>
+        <v>0.06564290331347016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.780071</v>
+      </c>
+      <c r="H6">
+        <v>5.340212999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.705267238077629</v>
+      </c>
+      <c r="J6">
+        <v>0.7052672380776291</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>112.708133</v>
+      </c>
+      <c r="N6">
+        <v>338.124399</v>
+      </c>
+      <c r="O6">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="P6">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="Q6">
+        <v>200.628479017443</v>
+      </c>
+      <c r="R6">
+        <v>1805.656311156987</v>
+      </c>
+      <c r="S6">
+        <v>0.1496241860696133</v>
+      </c>
+      <c r="T6">
+        <v>0.1496241860696133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.780071</v>
+      </c>
+      <c r="H7">
+        <v>5.340212999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.705267238077629</v>
+      </c>
+      <c r="J7">
+        <v>0.7052672380776291</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>189.57842</v>
+      </c>
+      <c r="N7">
+        <v>568.7352599999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="P7">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="Q7">
+        <v>337.4630476678199</v>
+      </c>
+      <c r="R7">
+        <v>3037.167429010379</v>
+      </c>
+      <c r="S7">
+        <v>0.2516723153320559</v>
+      </c>
+      <c r="T7">
+        <v>0.2516723153320559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.780071</v>
+      </c>
+      <c r="H8">
+        <v>5.340212999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.705267238077629</v>
+      </c>
+      <c r="J8">
+        <v>0.7052672380776291</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>110.6512236666667</v>
+      </c>
+      <c r="N8">
+        <v>331.953671</v>
+      </c>
+      <c r="O8">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="P8">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="Q8">
+        <v>196.967034363547</v>
+      </c>
+      <c r="R8">
+        <v>1772.703309271923</v>
+      </c>
+      <c r="S8">
+        <v>0.1468935633840348</v>
+      </c>
+      <c r="T8">
+        <v>0.1468935633840348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.780071</v>
+      </c>
+      <c r="H9">
+        <v>5.340212999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.705267238077629</v>
+      </c>
+      <c r="J9">
+        <v>0.7052672380776291</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>118.3222806666667</v>
+      </c>
+      <c r="N9">
+        <v>354.966842</v>
+      </c>
+      <c r="O9">
+        <v>0.2227200766053953</v>
+      </c>
+      <c r="P9">
+        <v>0.2227200766053952</v>
+      </c>
+      <c r="Q9">
+        <v>210.622060468594</v>
+      </c>
+      <c r="R9">
+        <v>1895.598544217346</v>
+      </c>
+      <c r="S9">
+        <v>0.1570771732919251</v>
+      </c>
+      <c r="T9">
+        <v>0.1570771732919251</v>
       </c>
     </row>
   </sheetData>
